--- a/backend/src/main/resources/excel/template.xlsx
+++ b/backend/src/main/resources/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13300"/>
+    <workbookView windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
-  <si>
-    <t>主机分组名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>主机名称</t>
   </si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>密码</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>xxx.xx.xxx.xx</t>
@@ -85,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,13 +93,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,9 +100,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,14 +138,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -150,8 +212,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,91 +237,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,37 +264,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,133 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,8 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,52 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +489,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -549,151 +517,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,20 +1077,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.5178571428571" customWidth="1"/>
-    <col min="2" max="2" width="17.1160714285714" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1160714285714" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,223 +1108,193 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="J1 J2:J22" numberStoredAsText="1"/>
+    <ignoredError sqref="I2:I22 I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/src/main/resources/excel/template.xlsx
+++ b/backend/src/main/resources/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16960"/>
+    <workbookView windowWidth="30240" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>主机名称</t>
   </si>
@@ -70,7 +70,13 @@
     <t>10.13.10.8</t>
   </si>
   <si>
+    <t>windows</t>
+  </si>
+  <si>
     <t>10.13.10.9</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -78,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -113,6 +119,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -122,10 +165,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,73 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -212,32 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,103 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,73 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +452,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,15 +481,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,165 +541,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1086,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1275,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>5985</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1294,7 +1300,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I2:I22 I1" numberStoredAsText="1"/>
+    <ignoredError sqref="I1 I2:I22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>